--- a/drafts/Bus Resistance.xlsx
+++ b/drafts/Bus Resistance.xlsx
@@ -81,15 +81,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -217,21 +223,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -247,10 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,6 +311,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +422,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -389,10 +445,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$X$4</c:f>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -419,16 +475,46 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$X$5</c:f>
+              <c:f>Sheet1!$P$6:$AH$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>5.9934000000000008E-2</c:v>
                 </c:pt>
@@ -455,6 +541,36 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.29966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32963700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35960400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.389571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41953799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44950499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47947200000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50943900000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53940600000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56937300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59933999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,7 +582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$9</c:f>
+              <c:f>Sheet1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -487,12 +603,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$X$9</c:f>
+              <c:f>Sheet1!$P$10:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9.527999999999999E-2</c:v>
                 </c:pt>
@@ -519,6 +701,21 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.47639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52404000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57167999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61932000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71460000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,7 +727,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$13</c:f>
+              <c:f>Sheet1!$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -551,12 +748,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$X$13</c:f>
+              <c:f>Sheet1!$P$14:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1515</c:v>
                 </c:pt>
@@ -580,9 +843,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.68174999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75750000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +854,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$17</c:f>
+              <c:f>Sheet1!$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -615,9 +875,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$T$17</c:f>
+              <c:f>Sheet1!$P$18:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -646,7 +972,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$21</c:f>
+              <c:f>Sheet1!$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,9 +993,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$21:$R$21</c:f>
+              <c:f>Sheet1!$P$22:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -696,11 +1088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="522357400"/>
-        <c:axId val="522357792"/>
+        <c:axId val="221355936"/>
+        <c:axId val="221356328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="522357400"/>
+        <c:axId val="221355936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +1191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522357792"/>
+        <c:crossAx val="221356328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522357792"/>
+        <c:axId val="221356328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +1306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522357400"/>
+        <c:crossAx val="221355936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,7 +1468,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1099,10 +1491,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$X$4</c:f>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1129,16 +1521,46 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$X$6</c:f>
+              <c:f>Sheet1!$P$7:$AE$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>9.9890000000000007E-2</c:v>
                 </c:pt>
@@ -1165,6 +1587,27 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.49945000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54939500000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59933999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.649285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74917499999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79912000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84906500000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,7 +1619,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$9</c:f>
+              <c:f>Sheet1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,9 +1640,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$10:$X$10</c:f>
+              <c:f>Sheet1!$P$11:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1240,7 +1749,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$13</c:f>
+              <c:f>Sheet1!$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1261,9 +1770,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$14:$T$14</c:f>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1292,7 +1867,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$17</c:f>
+              <c:f>Sheet1!$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1313,9 +1888,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$18:$R$18</c:f>
+              <c:f>Sheet1!$P$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1327,46 +1968,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.80319999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#18 AWG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.63850000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164207336"/>
-        <c:axId val="164208512"/>
+        <c:axId val="221356720"/>
+        <c:axId val="221353584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164207336"/>
+        <c:axId val="221356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +2086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164208512"/>
+        <c:crossAx val="221353584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,7 +2094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164208512"/>
+        <c:axId val="221353584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164207336"/>
+        <c:crossAx val="221356720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,7 +2363,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1821,7 +2422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$X$7</c:f>
+              <c:f>Sheet1!$P$8:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1862,7 +2463,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$9</c:f>
+              <c:f>Sheet1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +2486,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$11:$T$11</c:f>
+              <c:f>Sheet1!$P$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1914,7 +2515,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$13</c:f>
+              <c:f>Sheet1!$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1937,7 +2538,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$15:$R$15</c:f>
+              <c:f>Sheet1!$P$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1964,11 +2565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="522535320"/>
-        <c:axId val="522535712"/>
+        <c:axId val="221351624"/>
+        <c:axId val="221355544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="522535320"/>
+        <c:axId val="221351624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522535712"/>
+        <c:crossAx val="221355544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,7 +2676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522535712"/>
+        <c:axId val="221355544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522535320"/>
+        <c:crossAx val="221351624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2344,7 +2945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,7 +3004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$8:$U$8</c:f>
+              <c:f>Sheet1!$P$9:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2435,7 +3036,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$9</c:f>
+              <c:f>Sheet1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2458,7 +3059,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$12:$S$12</c:f>
+              <c:f>Sheet1!$P$13:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2484,7 +3085,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$13</c:f>
+              <c:f>Sheet1!$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2507,7 +3108,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$16:$Q$16</c:f>
+              <c:f>Sheet1!$P$17:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2531,11 +3132,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527467752"/>
-        <c:axId val="531662696"/>
+        <c:axId val="221358288"/>
+        <c:axId val="221352800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527467752"/>
+        <c:axId val="221358288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +3235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531662696"/>
+        <c:crossAx val="221352800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,7 +3243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531662696"/>
+        <c:axId val="221352800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +3350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527467752"/>
+        <c:crossAx val="221358288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5472,10 +6073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:X24"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,58 +6084,58 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="24" width="6.42578125" customWidth="1"/>
+    <col min="16" max="34" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="26" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="25"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5556,1051 +6157,1905 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="10">
         <v>10</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="17">
         <v>15</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="10">
         <v>20</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="17">
         <v>25</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="10">
         <v>30</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="17">
         <v>35</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="10">
         <v>40</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="17">
         <v>45</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="11">
         <v>50</v>
       </c>
+      <c r="Y4" s="26">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>90</v>
+      </c>
+      <c r="AG4" s="26">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M5" s="9"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.99890000000000001</v>
       </c>
-      <c r="C5" s="2">
-        <f>(2*C$4)*($B5/1000)*5</f>
+      <c r="C6" s="2">
+        <f>(2*C$4)*($B6/1000)*5</f>
         <v>9.9890000000000007E-2</v>
       </c>
-      <c r="D5" s="2">
-        <f>(2*D$4)*($B5/1000)*5</f>
+      <c r="D6" s="2">
+        <f>(2*D$4)*($B6/1000)*5</f>
         <v>0.19978000000000001</v>
       </c>
-      <c r="E5" s="2">
-        <f>(2*E$4)*($B5/1000)*5</f>
+      <c r="E6" s="2">
+        <f>(2*E$4)*($B6/1000)*5</f>
         <v>0.29966999999999999</v>
       </c>
-      <c r="F5" s="2">
-        <f>(2*F$4)*($B5/1000)*5</f>
+      <c r="F6" s="2">
+        <f>(2*F$4)*($B6/1000)*5</f>
         <v>0.39956000000000003</v>
       </c>
-      <c r="G5" s="2">
-        <f>(2*G$4)*($B5/1000)*5</f>
+      <c r="G6" s="2">
+        <f>(2*G$4)*($B6/1000)*5</f>
         <v>0.49945000000000006</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="30">
         <v>0.99890000000000001</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="21">
-        <f>(2*P$4)*($N$5/1000)*$O5</f>
+      <c r="P6" s="16">
+        <f>(2*P$4)*($N$6/1000)*$O6</f>
         <v>5.9934000000000008E-2</v>
       </c>
-      <c r="Q5" s="21">
-        <f>(2*Q$4)*($N$5/1000)*$O5</f>
+      <c r="Q6" s="16">
+        <f>(2*Q$4)*($N$6/1000)*$O6</f>
         <v>8.9901000000000009E-2</v>
       </c>
-      <c r="R5" s="21">
-        <f t="shared" ref="R5:X8" si="0">(2*R$4)*($N$5/1000)*$O5</f>
+      <c r="R6" s="16">
+        <f t="shared" ref="R6:AH16" si="0">(2*R$4)*($N$6/1000)*$O6</f>
         <v>0.11986800000000002</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S6" s="16">
         <f t="shared" si="0"/>
         <v>0.149835</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T6" s="16">
         <f t="shared" si="0"/>
         <v>0.17980200000000002</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U6" s="16">
         <f t="shared" si="0"/>
         <v>0.20976899999999998</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V6" s="16">
         <f t="shared" si="0"/>
         <v>0.23973600000000003</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W6" s="16">
         <f t="shared" si="0"/>
         <v>0.26970300000000003</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X6" s="16">
         <f t="shared" si="0"/>
         <v>0.29966999999999999</v>
       </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.32963700000000001</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.35960400000000003</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.389571</v>
+      </c>
+      <c r="AB6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.41953799999999997</v>
+      </c>
+      <c r="AC6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.44950499999999999</v>
+      </c>
+      <c r="AD6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.47947200000000006</v>
+      </c>
+      <c r="AE6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.50943900000000009</v>
+      </c>
+      <c r="AF6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53940600000000005</v>
+      </c>
+      <c r="AG6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.56937300000000002</v>
+      </c>
+      <c r="AH6" s="16">
+        <f t="shared" ref="AH6:AH16" si="1">(2*AH$4)*($N$6/1000)*$O6</f>
+        <v>0.59933999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.5880000000000001</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:G9" si="1">(2*C$4)*($B6/1000)*5</f>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:G10" si="2">(2*C$4)*($B7/1000)*5</f>
         <v>0.1588</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
         <v>0.31759999999999999</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
         <v>0.47640000000000005</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
         <v>0.63519999999999999</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
         <v>0.79400000000000004</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6">
+      <c r="M7" s="7"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="21">
-        <f t="shared" ref="P6:Q8" si="2">(2*P$4)*($N$5/1000)*$O6</f>
+      <c r="P7" s="16">
+        <f t="shared" ref="P7:Q9" si="3">(2*P$4)*($N$6/1000)*$O7</f>
         <v>9.9890000000000007E-2</v>
       </c>
-      <c r="Q6" s="21">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="16">
+        <f t="shared" si="3"/>
         <v>0.149835</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R7" s="16">
         <f t="shared" si="0"/>
         <v>0.19978000000000001</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S7" s="16">
         <f t="shared" si="0"/>
         <v>0.24972500000000003</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T7" s="16">
         <f t="shared" si="0"/>
         <v>0.29966999999999999</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U7" s="16">
         <f t="shared" si="0"/>
         <v>0.34961500000000001</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V7" s="16">
         <f t="shared" si="0"/>
         <v>0.39956000000000003</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W7" s="16">
         <f t="shared" si="0"/>
         <v>0.44950500000000004</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X7" s="16">
         <f t="shared" si="0"/>
         <v>0.49945000000000006</v>
       </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.54939500000000008</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.59933999999999998</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.649285</v>
+      </c>
+      <c r="AB7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69923000000000002</v>
+      </c>
+      <c r="AC7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.74917499999999992</v>
+      </c>
+      <c r="AD7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.79912000000000005</v>
+      </c>
+      <c r="AE7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.84906500000000007</v>
+      </c>
+      <c r="AF7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.89901000000000009</v>
+      </c>
+      <c r="AG7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.9489550000000001</v>
+      </c>
+      <c r="AH7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.99890000000000012</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>2.5249999999999999</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
         <v>0.505</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
         <v>0.75749999999999995</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
         <v>1.2625</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6">
+      <c r="M8" s="7"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="4">
         <v>7</v>
       </c>
-      <c r="P7" s="21">
-        <f t="shared" si="2"/>
+      <c r="P8" s="16">
+        <f t="shared" si="3"/>
         <v>0.13984600000000003</v>
       </c>
-      <c r="Q7" s="21">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="16">
+        <f t="shared" si="3"/>
         <v>0.20976900000000001</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R8" s="16">
         <f t="shared" si="0"/>
         <v>0.27969200000000005</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S8" s="16">
         <f t="shared" si="0"/>
         <v>0.34961500000000001</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T8" s="16">
         <f t="shared" si="0"/>
         <v>0.41953800000000002</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U8" s="16">
         <f t="shared" si="0"/>
         <v>0.48946099999999998</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V8" s="16">
         <f t="shared" si="0"/>
         <v>0.5593840000000001</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W8" s="16">
         <f t="shared" si="0"/>
         <v>0.62930700000000006</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X8" s="16">
         <f t="shared" si="0"/>
         <v>0.69923000000000002</v>
       </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.76915299999999998</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.83907600000000004</v>
+      </c>
+      <c r="AA8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.908999</v>
+      </c>
+      <c r="AB8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.97892199999999996</v>
+      </c>
+      <c r="AC8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.048845</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1187680000000002</v>
+      </c>
+      <c r="AE8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1886910000000002</v>
+      </c>
+      <c r="AF8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.2586140000000001</v>
+      </c>
+      <c r="AG8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3285370000000001</v>
+      </c>
+      <c r="AH8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.39846</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>4.016</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
         <v>0.40159999999999996</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
         <v>0.80319999999999991</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
         <v>1.2047999999999999</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
         <v>1.6063999999999998</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
         <v>2.008</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8">
+      <c r="M9" s="13"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="5">
         <v>10</v>
       </c>
-      <c r="P8" s="21">
-        <f t="shared" si="2"/>
+      <c r="P9" s="16">
+        <f t="shared" si="3"/>
         <v>0.19978000000000001</v>
       </c>
-      <c r="Q8" s="21">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="16">
+        <f t="shared" si="3"/>
         <v>0.29966999999999999</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R9" s="16">
         <f t="shared" si="0"/>
         <v>0.39956000000000003</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S9" s="16">
         <f t="shared" si="0"/>
         <v>0.49945000000000006</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T9" s="16">
         <f t="shared" si="0"/>
         <v>0.59933999999999998</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U9" s="16">
         <f t="shared" si="0"/>
         <v>0.69923000000000002</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V9" s="16">
         <f t="shared" si="0"/>
         <v>0.79912000000000005</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W9" s="27">
         <f t="shared" si="0"/>
         <v>0.89901000000000009</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X9" s="27">
         <f t="shared" si="0"/>
         <v>0.99890000000000012</v>
       </c>
+      <c r="Y9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0987900000000002</v>
+      </c>
+      <c r="Z9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.19868</v>
+      </c>
+      <c r="AA9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.29857</v>
+      </c>
+      <c r="AB9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.39846</v>
+      </c>
+      <c r="AC9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.4983499999999998</v>
+      </c>
+      <c r="AD9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5982400000000001</v>
+      </c>
+      <c r="AE9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.6981300000000001</v>
+      </c>
+      <c r="AF9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.7980200000000002</v>
+      </c>
+      <c r="AG9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.8979100000000002</v>
+      </c>
+      <c r="AH9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.9978000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>6.3849999999999998</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
         <v>0.63850000000000007</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
         <v>1.2770000000000001</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
         <v>1.9155</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
         <v>2.5540000000000003</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
         <v>3.1924999999999999</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="30">
         <v>1.5880000000000001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="3">
         <v>3</v>
       </c>
-      <c r="P9" s="21">
-        <f t="shared" ref="P9:X12" si="3">(2*P$4)*($N$9/1000)*$O9</f>
+      <c r="P10" s="16">
+        <f t="shared" ref="P10:AE13" si="4">(2*P$4)*($N$10/1000)*$O10</f>
         <v>9.527999999999999E-2</v>
       </c>
-      <c r="Q9" s="21">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="16">
+        <f t="shared" si="4"/>
         <v>0.14291999999999999</v>
       </c>
-      <c r="R9" s="21">
-        <f t="shared" si="3"/>
+      <c r="R10" s="16">
+        <f t="shared" si="4"/>
         <v>0.19055999999999998</v>
       </c>
-      <c r="S9" s="21">
-        <f t="shared" si="3"/>
+      <c r="S10" s="16">
+        <f t="shared" si="4"/>
         <v>0.2382</v>
       </c>
-      <c r="T9" s="21">
-        <f t="shared" si="3"/>
+      <c r="T10" s="16">
+        <f t="shared" si="4"/>
         <v>0.28583999999999998</v>
       </c>
-      <c r="U9" s="21">
-        <f t="shared" si="3"/>
+      <c r="U10" s="16">
+        <f t="shared" si="4"/>
         <v>0.33348</v>
       </c>
-      <c r="V9" s="21">
-        <f t="shared" si="3"/>
+      <c r="V10" s="28">
+        <f t="shared" si="4"/>
         <v>0.38111999999999996</v>
       </c>
-      <c r="W9" s="21">
-        <f t="shared" si="3"/>
+      <c r="W10" s="28">
+        <f t="shared" si="4"/>
         <v>0.42875999999999997</v>
       </c>
-      <c r="X9" s="21">
-        <f t="shared" si="3"/>
+      <c r="X10" s="28">
+        <f t="shared" si="4"/>
         <v>0.47639999999999999</v>
       </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.52404000000000006</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.57167999999999997</v>
+      </c>
+      <c r="AA10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.61932000000000009</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.66696</v>
+      </c>
+      <c r="AC10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="AD10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.76223999999999992</v>
+      </c>
+      <c r="AE10" s="27">
+        <f t="shared" si="4"/>
+        <v>0.80987999999999993</v>
+      </c>
+      <c r="AF10" s="27">
+        <f t="shared" ref="Y10:AH13" si="5">(2*AF$4)*($N$10/1000)*$O10</f>
+        <v>0.85751999999999995</v>
+      </c>
+      <c r="AG10" s="27">
+        <f t="shared" si="5"/>
+        <v>0.90515999999999996</v>
+      </c>
+      <c r="AH10" s="27">
+        <f t="shared" si="5"/>
+        <v>0.95279999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M10" s="11"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M11" s="7"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="4">
         <v>5</v>
       </c>
-      <c r="P10" s="21">
-        <f t="shared" si="3"/>
+      <c r="P11" s="16">
+        <f t="shared" si="4"/>
         <v>0.1588</v>
       </c>
-      <c r="Q10" s="21">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="16">
+        <f t="shared" si="4"/>
         <v>0.23820000000000002</v>
       </c>
-      <c r="R10" s="21">
-        <f t="shared" si="3"/>
+      <c r="R11" s="16">
+        <f t="shared" si="4"/>
         <v>0.31759999999999999</v>
       </c>
-      <c r="S10" s="21">
-        <f t="shared" si="3"/>
+      <c r="S11" s="16">
+        <f t="shared" si="4"/>
         <v>0.39700000000000002</v>
       </c>
-      <c r="T10" s="21">
-        <f t="shared" si="3"/>
+      <c r="T11" s="16">
+        <f t="shared" si="4"/>
         <v>0.47640000000000005</v>
       </c>
-      <c r="U10" s="21">
-        <f t="shared" si="3"/>
+      <c r="U11" s="16">
+        <f t="shared" si="4"/>
         <v>0.55579999999999996</v>
       </c>
-      <c r="V10" s="21">
-        <f t="shared" si="3"/>
+      <c r="V11" s="16">
+        <f t="shared" si="4"/>
         <v>0.63519999999999999</v>
       </c>
-      <c r="W10" s="21">
-        <f t="shared" si="3"/>
+      <c r="W11" s="28">
+        <f t="shared" si="4"/>
         <v>0.7145999999999999</v>
       </c>
-      <c r="X10" s="21">
-        <f t="shared" si="3"/>
+      <c r="X11" s="28">
+        <f t="shared" si="4"/>
         <v>0.79400000000000004</v>
       </c>
+      <c r="Y11" s="27">
+        <f t="shared" si="5"/>
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="Z11" s="27">
+        <f t="shared" si="5"/>
+        <v>0.95280000000000009</v>
+      </c>
+      <c r="AA11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.0322</v>
+      </c>
+      <c r="AB11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1115999999999999</v>
+      </c>
+      <c r="AC11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="AD11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.2704</v>
+      </c>
+      <c r="AE11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.3497999999999999</v>
+      </c>
+      <c r="AF11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.4291999999999998</v>
+      </c>
+      <c r="AG11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.5085999999999999</v>
+      </c>
+      <c r="AH11" s="27">
+        <f t="shared" si="5"/>
+        <v>1.5880000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M11" s="11"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M12" s="7"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="4">
         <v>7</v>
       </c>
-      <c r="P11" s="21">
-        <f t="shared" si="3"/>
+      <c r="P12" s="16">
+        <f t="shared" si="4"/>
         <v>0.22231999999999996</v>
       </c>
-      <c r="Q11" s="21">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="16">
+        <f t="shared" si="4"/>
         <v>0.33348</v>
       </c>
-      <c r="R11" s="21">
-        <f t="shared" si="3"/>
+      <c r="R12" s="16">
+        <f t="shared" si="4"/>
         <v>0.44463999999999992</v>
       </c>
-      <c r="S11" s="21">
-        <f t="shared" si="3"/>
+      <c r="S12" s="16">
+        <f t="shared" si="4"/>
         <v>0.55579999999999996</v>
       </c>
-      <c r="T11" s="21">
-        <f t="shared" si="3"/>
+      <c r="T12" s="16">
+        <f t="shared" si="4"/>
         <v>0.66696</v>
       </c>
-      <c r="U11" s="21">
-        <f t="shared" si="3"/>
+      <c r="U12" s="16">
+        <f t="shared" si="4"/>
         <v>0.77811999999999992</v>
       </c>
-      <c r="V11" s="21">
-        <f t="shared" si="3"/>
+      <c r="V12" s="27">
+        <f t="shared" si="4"/>
         <v>0.88927999999999985</v>
       </c>
-      <c r="W11" s="21">
-        <f t="shared" si="3"/>
+      <c r="W12" s="27">
+        <f t="shared" si="4"/>
         <v>1.00044</v>
       </c>
-      <c r="X11" s="21">
-        <f t="shared" si="3"/>
+      <c r="X12" s="27">
+        <f t="shared" si="4"/>
         <v>1.1115999999999999</v>
       </c>
+      <c r="Y12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.2227600000000001</v>
+      </c>
+      <c r="Z12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.33392</v>
+      </c>
+      <c r="AA12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.4450800000000001</v>
+      </c>
+      <c r="AB12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.5562399999999998</v>
+      </c>
+      <c r="AC12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.6674</v>
+      </c>
+      <c r="AD12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.7785599999999997</v>
+      </c>
+      <c r="AE12" s="27">
+        <f t="shared" si="5"/>
+        <v>1.8897199999999998</v>
+      </c>
+      <c r="AF12" s="27">
+        <f t="shared" si="5"/>
+        <v>2.00088</v>
+      </c>
+      <c r="AG12" s="27">
+        <f t="shared" si="5"/>
+        <v>2.1120399999999999</v>
+      </c>
+      <c r="AH12" s="27">
+        <f t="shared" si="5"/>
+        <v>2.2231999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M12" s="17"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M13" s="13"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="5">
         <v>10</v>
       </c>
-      <c r="P12" s="21">
-        <f t="shared" si="3"/>
+      <c r="P13" s="16">
+        <f t="shared" si="4"/>
         <v>0.31759999999999999</v>
       </c>
-      <c r="Q12" s="21">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="16">
+        <f t="shared" si="4"/>
         <v>0.47640000000000005</v>
       </c>
-      <c r="R12" s="21">
-        <f t="shared" si="3"/>
+      <c r="R13" s="16">
+        <f t="shared" si="4"/>
         <v>0.63519999999999999</v>
       </c>
-      <c r="S12" s="21">
-        <f t="shared" si="3"/>
+      <c r="S13" s="16">
+        <f t="shared" si="4"/>
         <v>0.79400000000000004</v>
       </c>
-      <c r="T12" s="21">
-        <f t="shared" si="3"/>
+      <c r="T13" s="27">
+        <f t="shared" si="4"/>
         <v>0.95280000000000009</v>
       </c>
-      <c r="U12" s="21">
-        <f t="shared" si="3"/>
+      <c r="U13" s="27">
+        <f t="shared" si="4"/>
         <v>1.1115999999999999</v>
       </c>
-      <c r="V12" s="21">
-        <f t="shared" si="3"/>
+      <c r="V13" s="27">
+        <f t="shared" si="4"/>
         <v>1.2704</v>
       </c>
-      <c r="W12" s="21">
-        <f t="shared" si="3"/>
+      <c r="W13" s="27">
+        <f t="shared" si="4"/>
         <v>1.4291999999999998</v>
       </c>
-      <c r="X12" s="21">
-        <f t="shared" si="3"/>
+      <c r="X13" s="27">
+        <f t="shared" si="4"/>
         <v>1.5880000000000001</v>
       </c>
+      <c r="Y13" s="27">
+        <f t="shared" si="5"/>
+        <v>1.7467999999999999</v>
+      </c>
+      <c r="Z13" s="27">
+        <f t="shared" si="5"/>
+        <v>1.9056000000000002</v>
+      </c>
+      <c r="AA13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.0644</v>
+      </c>
+      <c r="AB13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.2231999999999998</v>
+      </c>
+      <c r="AC13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="AD13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="AE13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.6995999999999998</v>
+      </c>
+      <c r="AF13" s="27">
+        <f t="shared" si="5"/>
+        <v>2.8583999999999996</v>
+      </c>
+      <c r="AG13" s="27">
+        <f t="shared" si="5"/>
+        <v>3.0171999999999999</v>
+      </c>
+      <c r="AH13" s="27">
+        <f t="shared" si="5"/>
+        <v>3.1760000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M13" s="16" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="30">
         <v>2.5249999999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="3">
         <v>3</v>
       </c>
-      <c r="P13" s="21">
-        <f t="shared" ref="P13:X16" si="4">(2*P$4)*($N$13/1000)*$O13</f>
+      <c r="P14" s="16">
+        <f t="shared" ref="P14:AE17" si="6">(2*P$4)*($N$14/1000)*$O14</f>
         <v>0.1515</v>
       </c>
-      <c r="Q13" s="21">
-        <f t="shared" si="4"/>
+      <c r="Q14" s="16">
+        <f t="shared" si="6"/>
         <v>0.22725000000000001</v>
       </c>
-      <c r="R13" s="21">
-        <f t="shared" si="4"/>
+      <c r="R14" s="16">
+        <f t="shared" si="6"/>
         <v>0.30299999999999999</v>
       </c>
-      <c r="S13" s="21">
-        <f t="shared" si="4"/>
+      <c r="S14" s="16">
+        <f t="shared" si="6"/>
         <v>0.37875000000000003</v>
       </c>
-      <c r="T13" s="21">
-        <f t="shared" si="4"/>
+      <c r="T14" s="16">
+        <f t="shared" si="6"/>
         <v>0.45450000000000002</v>
       </c>
-      <c r="U13" s="21">
-        <f t="shared" si="4"/>
+      <c r="U14" s="16">
+        <f t="shared" si="6"/>
         <v>0.53025</v>
       </c>
-      <c r="V13" s="21">
-        <f t="shared" si="4"/>
+      <c r="V14" s="28">
+        <f t="shared" si="6"/>
         <v>0.60599999999999998</v>
       </c>
-      <c r="W13" s="21">
-        <f t="shared" si="4"/>
+      <c r="W14" s="28">
+        <f t="shared" si="6"/>
         <v>0.68174999999999997</v>
       </c>
-      <c r="X13" s="21">
-        <f t="shared" si="4"/>
+      <c r="X14" s="28">
+        <f t="shared" si="6"/>
         <v>0.75750000000000006</v>
       </c>
+      <c r="Y14" s="27">
+        <f t="shared" si="6"/>
+        <v>0.83325000000000005</v>
+      </c>
+      <c r="Z14" s="27">
+        <f t="shared" si="6"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AA14" s="27">
+        <f t="shared" si="6"/>
+        <v>0.98475000000000001</v>
+      </c>
+      <c r="AB14" s="27">
+        <f t="shared" si="6"/>
+        <v>1.0605</v>
+      </c>
+      <c r="AC14" s="27">
+        <f t="shared" si="6"/>
+        <v>1.13625</v>
+      </c>
+      <c r="AD14" s="27">
+        <f t="shared" si="6"/>
+        <v>1.212</v>
+      </c>
+      <c r="AE14" s="27">
+        <f t="shared" si="6"/>
+        <v>1.28775</v>
+      </c>
+      <c r="AF14" s="27">
+        <f t="shared" ref="Y14:AH17" si="7">(2*AF$4)*($N$14/1000)*$O14</f>
+        <v>1.3634999999999999</v>
+      </c>
+      <c r="AG14" s="27">
+        <f t="shared" si="7"/>
+        <v>1.4392499999999999</v>
+      </c>
+      <c r="AH14" s="27">
+        <f t="shared" si="7"/>
+        <v>1.5150000000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M14" s="11"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M15" s="7"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="4">
         <v>5</v>
       </c>
-      <c r="P14" s="21">
-        <f t="shared" si="4"/>
+      <c r="P15" s="16">
+        <f t="shared" si="6"/>
         <v>0.2525</v>
       </c>
-      <c r="Q14" s="21">
-        <f t="shared" si="4"/>
+      <c r="Q15" s="16">
+        <f t="shared" si="6"/>
         <v>0.37874999999999998</v>
       </c>
-      <c r="R14" s="21">
-        <f t="shared" si="4"/>
+      <c r="R15" s="16">
+        <f t="shared" si="6"/>
         <v>0.505</v>
       </c>
-      <c r="S14" s="21">
-        <f t="shared" si="4"/>
+      <c r="S15" s="16">
+        <f t="shared" si="6"/>
         <v>0.63124999999999998</v>
       </c>
-      <c r="T14" s="21">
-        <f t="shared" si="4"/>
+      <c r="T15" s="16">
+        <f t="shared" si="6"/>
         <v>0.75749999999999995</v>
       </c>
-      <c r="U14" s="21">
-        <f t="shared" si="4"/>
+      <c r="U15" s="27">
+        <f t="shared" si="6"/>
         <v>0.88374999999999992</v>
       </c>
-      <c r="V14" s="21">
-        <f t="shared" si="4"/>
+      <c r="V15" s="27">
+        <f t="shared" si="6"/>
         <v>1.01</v>
       </c>
-      <c r="W14" s="21">
-        <f t="shared" si="4"/>
+      <c r="W15" s="27">
+        <f t="shared" si="6"/>
         <v>1.13625</v>
       </c>
-      <c r="X14" s="21">
-        <f t="shared" si="4"/>
+      <c r="X15" s="27">
+        <f t="shared" si="6"/>
         <v>1.2625</v>
       </c>
+      <c r="Y15" s="27">
+        <f t="shared" si="6"/>
+        <v>1.3887499999999999</v>
+      </c>
+      <c r="Z15" s="27">
+        <f t="shared" si="6"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="AA15" s="27">
+        <f t="shared" si="6"/>
+        <v>1.6412499999999999</v>
+      </c>
+      <c r="AB15" s="27">
+        <f t="shared" si="6"/>
+        <v>1.7674999999999998</v>
+      </c>
+      <c r="AC15" s="27">
+        <f t="shared" si="6"/>
+        <v>1.8937499999999998</v>
+      </c>
+      <c r="AD15" s="27">
+        <f t="shared" si="6"/>
+        <v>2.02</v>
+      </c>
+      <c r="AE15" s="27">
+        <f t="shared" si="6"/>
+        <v>2.1462499999999998</v>
+      </c>
+      <c r="AF15" s="27">
+        <f t="shared" si="7"/>
+        <v>2.2725</v>
+      </c>
+      <c r="AG15" s="27">
+        <f t="shared" si="7"/>
+        <v>2.3987499999999997</v>
+      </c>
+      <c r="AH15" s="27">
+        <f t="shared" si="7"/>
+        <v>2.5249999999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M15" s="11"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="M16" s="7"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="4">
         <v>7</v>
       </c>
-      <c r="P15" s="21">
-        <f t="shared" si="4"/>
+      <c r="P16" s="16">
+        <f t="shared" si="6"/>
         <v>0.35349999999999998</v>
       </c>
-      <c r="Q15" s="21">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="16">
+        <f t="shared" si="6"/>
         <v>0.53025</v>
       </c>
-      <c r="R15" s="21">
-        <f t="shared" si="4"/>
+      <c r="R16" s="16">
+        <f t="shared" si="6"/>
         <v>0.70699999999999996</v>
       </c>
-      <c r="S15" s="21">
-        <f t="shared" si="4"/>
+      <c r="S16" s="27">
+        <f t="shared" si="6"/>
         <v>0.88375000000000004</v>
       </c>
-      <c r="T15" s="21">
-        <f t="shared" si="4"/>
+      <c r="T16" s="27">
+        <f t="shared" si="6"/>
         <v>1.0605</v>
       </c>
-      <c r="U15" s="21">
-        <f t="shared" si="4"/>
+      <c r="U16" s="27">
+        <f t="shared" si="6"/>
         <v>1.23725</v>
       </c>
-      <c r="V15" s="21">
-        <f t="shared" si="4"/>
+      <c r="V16" s="27">
+        <f t="shared" si="6"/>
         <v>1.4139999999999999</v>
       </c>
-      <c r="W15" s="21">
-        <f t="shared" si="4"/>
+      <c r="W16" s="27">
+        <f t="shared" si="6"/>
         <v>1.5907499999999999</v>
       </c>
-      <c r="X15" s="21">
-        <f t="shared" si="4"/>
+      <c r="X16" s="27">
+        <f t="shared" si="6"/>
         <v>1.7675000000000001</v>
       </c>
+      <c r="Y16" s="27">
+        <f t="shared" si="7"/>
+        <v>1.94425</v>
+      </c>
+      <c r="Z16" s="27">
+        <f t="shared" si="7"/>
+        <v>2.121</v>
+      </c>
+      <c r="AA16" s="27">
+        <f t="shared" si="7"/>
+        <v>2.2977499999999997</v>
+      </c>
+      <c r="AB16" s="27">
+        <f t="shared" si="7"/>
+        <v>2.4744999999999999</v>
+      </c>
+      <c r="AC16" s="27">
+        <f t="shared" si="7"/>
+        <v>2.6512499999999997</v>
+      </c>
+      <c r="AD16" s="27">
+        <f t="shared" si="7"/>
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="AE16" s="27">
+        <f t="shared" si="7"/>
+        <v>3.0047499999999996</v>
+      </c>
+      <c r="AF16" s="27">
+        <f t="shared" si="7"/>
+        <v>3.1814999999999998</v>
+      </c>
+      <c r="AG16" s="27">
+        <f t="shared" si="7"/>
+        <v>3.3582499999999995</v>
+      </c>
+      <c r="AH16" s="27">
+        <f t="shared" si="7"/>
+        <v>3.5350000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M16" s="17"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8">
+    <row r="17" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M17" s="13"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="5">
         <v>10</v>
       </c>
-      <c r="P16" s="21">
-        <f t="shared" si="4"/>
+      <c r="P17" s="16">
+        <f t="shared" si="6"/>
         <v>0.505</v>
       </c>
-      <c r="Q16" s="21">
-        <f t="shared" si="4"/>
+      <c r="Q17" s="16">
+        <f t="shared" si="6"/>
         <v>0.75749999999999995</v>
       </c>
-      <c r="R16" s="21">
-        <f t="shared" si="4"/>
+      <c r="R17" s="27">
+        <f t="shared" si="6"/>
         <v>1.01</v>
       </c>
-      <c r="S16" s="21">
-        <f t="shared" si="4"/>
+      <c r="S17" s="27">
+        <f t="shared" si="6"/>
         <v>1.2625</v>
       </c>
-      <c r="T16" s="21">
-        <f t="shared" si="4"/>
+      <c r="T17" s="27">
+        <f t="shared" si="6"/>
         <v>1.5149999999999999</v>
       </c>
-      <c r="U16" s="21">
-        <f t="shared" si="4"/>
+      <c r="U17" s="27">
+        <f t="shared" si="6"/>
         <v>1.7674999999999998</v>
       </c>
-      <c r="V16" s="21">
-        <f t="shared" si="4"/>
+      <c r="V17" s="27">
+        <f t="shared" si="6"/>
         <v>2.02</v>
       </c>
-      <c r="W16" s="21">
-        <f t="shared" si="4"/>
+      <c r="W17" s="27">
+        <f t="shared" si="6"/>
         <v>2.2725</v>
       </c>
-      <c r="X16" s="21">
-        <f t="shared" si="4"/>
+      <c r="X17" s="27">
+        <f t="shared" si="6"/>
         <v>2.5249999999999999</v>
       </c>
+      <c r="Y17" s="27">
+        <f t="shared" si="7"/>
+        <v>2.7774999999999999</v>
+      </c>
+      <c r="Z17" s="27">
+        <f t="shared" si="7"/>
+        <v>3.03</v>
+      </c>
+      <c r="AA17" s="27">
+        <f t="shared" si="7"/>
+        <v>3.2824999999999998</v>
+      </c>
+      <c r="AB17" s="27">
+        <f t="shared" si="7"/>
+        <v>3.5349999999999997</v>
+      </c>
+      <c r="AC17" s="27">
+        <f t="shared" si="7"/>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="AD17" s="27">
+        <f t="shared" si="7"/>
+        <v>4.04</v>
+      </c>
+      <c r="AE17" s="27">
+        <f t="shared" si="7"/>
+        <v>4.2924999999999995</v>
+      </c>
+      <c r="AF17" s="27">
+        <f t="shared" si="7"/>
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="AG17" s="27">
+        <f t="shared" si="7"/>
+        <v>4.7974999999999994</v>
+      </c>
+      <c r="AH17" s="27">
+        <f t="shared" si="7"/>
+        <v>5.05</v>
+      </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M17" s="16" t="s">
+    <row r="18" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="30">
         <v>4.016</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="3">
         <v>3</v>
       </c>
-      <c r="P17" s="21">
-        <f t="shared" ref="P17:X20" si="5">(2*P$4)*($N$17/1000)*$O17</f>
+      <c r="P18" s="16">
+        <f t="shared" ref="P18:AE21" si="8">(2*P$4)*($N$18/1000)*$O18</f>
         <v>0.24095999999999995</v>
       </c>
-      <c r="Q17" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="16">
+        <f t="shared" si="8"/>
         <v>0.36143999999999998</v>
       </c>
-      <c r="R17" s="21">
-        <f t="shared" si="5"/>
+      <c r="R18" s="16">
+        <f t="shared" si="8"/>
         <v>0.4819199999999999</v>
       </c>
-      <c r="S17" s="21">
-        <f t="shared" si="5"/>
+      <c r="S18" s="16">
+        <f t="shared" si="8"/>
         <v>0.60239999999999994</v>
       </c>
-      <c r="T17" s="21">
-        <f t="shared" si="5"/>
+      <c r="T18" s="16">
+        <f t="shared" si="8"/>
         <v>0.72287999999999997</v>
       </c>
-      <c r="U17" s="21">
-        <f t="shared" si="5"/>
+      <c r="U18" s="16">
+        <f t="shared" si="8"/>
         <v>0.84335999999999989</v>
       </c>
-      <c r="V17" s="21">
-        <f t="shared" si="5"/>
+      <c r="V18" s="27">
+        <f t="shared" si="8"/>
         <v>0.96383999999999981</v>
       </c>
-      <c r="W17" s="21">
-        <f t="shared" si="5"/>
+      <c r="W18" s="27">
+        <f t="shared" si="8"/>
         <v>1.08432</v>
       </c>
-      <c r="X17" s="21">
-        <f t="shared" si="5"/>
+      <c r="X18" s="27">
+        <f t="shared" si="8"/>
         <v>1.2047999999999999</v>
       </c>
+      <c r="Y18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.3252799999999998</v>
+      </c>
+      <c r="Z18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.4457599999999999</v>
+      </c>
+      <c r="AA18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.5662400000000001</v>
+      </c>
+      <c r="AB18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.6867199999999998</v>
+      </c>
+      <c r="AC18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.8071999999999999</v>
+      </c>
+      <c r="AD18" s="27">
+        <f t="shared" si="8"/>
+        <v>1.9276799999999996</v>
+      </c>
+      <c r="AE18" s="27">
+        <f t="shared" si="8"/>
+        <v>2.0481599999999998</v>
+      </c>
+      <c r="AF18" s="27">
+        <f t="shared" ref="Y18:AH21" si="9">(2*AF$4)*($N$18/1000)*$O18</f>
+        <v>2.1686399999999999</v>
+      </c>
+      <c r="AG18" s="27">
+        <f t="shared" si="9"/>
+        <v>2.2891199999999996</v>
+      </c>
+      <c r="AH18" s="27">
+        <f t="shared" si="9"/>
+        <v>2.4095999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M18" s="11"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6">
+    <row r="19" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M19" s="7"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="4">
         <v>5</v>
       </c>
-      <c r="P18" s="21">
-        <f t="shared" si="5"/>
+      <c r="P19" s="16">
+        <f t="shared" si="8"/>
         <v>0.40159999999999996</v>
       </c>
-      <c r="Q18" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q19" s="16">
+        <f t="shared" si="8"/>
         <v>0.60239999999999994</v>
       </c>
-      <c r="R18" s="21">
-        <f t="shared" si="5"/>
+      <c r="R19" s="16">
+        <f t="shared" si="8"/>
         <v>0.80319999999999991</v>
       </c>
-      <c r="S18" s="21">
-        <f t="shared" si="5"/>
+      <c r="S19" s="27">
+        <f t="shared" si="8"/>
         <v>1.004</v>
       </c>
-      <c r="T18" s="21">
-        <f t="shared" si="5"/>
+      <c r="T19" s="27">
+        <f t="shared" si="8"/>
         <v>1.2047999999999999</v>
       </c>
-      <c r="U18" s="21">
-        <f t="shared" si="5"/>
+      <c r="U19" s="27">
+        <f t="shared" si="8"/>
         <v>1.4056</v>
       </c>
-      <c r="V18" s="21">
-        <f t="shared" si="5"/>
+      <c r="V19" s="27">
+        <f t="shared" si="8"/>
         <v>1.6063999999999998</v>
       </c>
-      <c r="W18" s="21">
-        <f t="shared" si="5"/>
+      <c r="W19" s="27">
+        <f t="shared" si="8"/>
         <v>1.8071999999999999</v>
       </c>
-      <c r="X18" s="21">
-        <f t="shared" si="5"/>
+      <c r="X19" s="27">
+        <f t="shared" si="8"/>
         <v>2.008</v>
       </c>
+      <c r="Y19" s="27">
+        <f t="shared" si="9"/>
+        <v>2.2087999999999997</v>
+      </c>
+      <c r="Z19" s="27">
+        <f t="shared" si="9"/>
+        <v>2.4095999999999997</v>
+      </c>
+      <c r="AA19" s="27">
+        <f t="shared" si="9"/>
+        <v>2.6103999999999998</v>
+      </c>
+      <c r="AB19" s="27">
+        <f t="shared" si="9"/>
+        <v>2.8111999999999999</v>
+      </c>
+      <c r="AC19" s="27">
+        <f t="shared" si="9"/>
+        <v>3.0119999999999996</v>
+      </c>
+      <c r="AD19" s="27">
+        <f t="shared" si="9"/>
+        <v>3.2127999999999997</v>
+      </c>
+      <c r="AE19" s="27">
+        <f t="shared" si="9"/>
+        <v>3.4135999999999993</v>
+      </c>
+      <c r="AF19" s="27">
+        <f t="shared" si="9"/>
+        <v>3.6143999999999998</v>
+      </c>
+      <c r="AG19" s="27">
+        <f t="shared" si="9"/>
+        <v>3.8151999999999999</v>
+      </c>
+      <c r="AH19" s="27">
+        <f t="shared" si="9"/>
+        <v>4.016</v>
+      </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M19" s="11"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6">
+    <row r="20" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M20" s="7"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="4">
         <v>7</v>
       </c>
-      <c r="P19" s="21">
-        <f t="shared" si="5"/>
+      <c r="P20" s="16">
+        <f t="shared" si="8"/>
         <v>0.56223999999999996</v>
       </c>
-      <c r="Q19" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q20" s="16">
+        <f t="shared" si="8"/>
         <v>0.84335999999999989</v>
       </c>
-      <c r="R19" s="21">
-        <f t="shared" si="5"/>
+      <c r="R20" s="27">
+        <f t="shared" si="8"/>
         <v>1.1244799999999999</v>
       </c>
-      <c r="S19" s="21">
-        <f t="shared" si="5"/>
+      <c r="S20" s="27">
+        <f t="shared" si="8"/>
         <v>1.4055999999999997</v>
       </c>
-      <c r="T19" s="21">
-        <f t="shared" si="5"/>
+      <c r="T20" s="27">
+        <f t="shared" si="8"/>
         <v>1.6867199999999998</v>
       </c>
-      <c r="U19" s="21">
-        <f t="shared" si="5"/>
+      <c r="U20" s="27">
+        <f t="shared" si="8"/>
         <v>1.9678399999999998</v>
       </c>
-      <c r="V19" s="21">
-        <f t="shared" si="5"/>
+      <c r="V20" s="27">
+        <f t="shared" si="8"/>
         <v>2.2489599999999998</v>
       </c>
-      <c r="W19" s="21">
-        <f t="shared" si="5"/>
+      <c r="W20" s="27">
+        <f t="shared" si="8"/>
         <v>2.5300799999999999</v>
       </c>
-      <c r="X19" s="21">
-        <f t="shared" si="5"/>
+      <c r="X20" s="27">
+        <f t="shared" si="8"/>
         <v>2.8111999999999995</v>
       </c>
+      <c r="Y20" s="27">
+        <f t="shared" si="9"/>
+        <v>3.0923199999999995</v>
+      </c>
+      <c r="Z20" s="27">
+        <f t="shared" si="9"/>
+        <v>3.3734399999999996</v>
+      </c>
+      <c r="AA20" s="27">
+        <f t="shared" si="9"/>
+        <v>3.65456</v>
+      </c>
+      <c r="AB20" s="27">
+        <f t="shared" si="9"/>
+        <v>3.9356799999999996</v>
+      </c>
+      <c r="AC20" s="27">
+        <f t="shared" si="9"/>
+        <v>4.2167999999999992</v>
+      </c>
+      <c r="AD20" s="27">
+        <f t="shared" si="9"/>
+        <v>4.4979199999999997</v>
+      </c>
+      <c r="AE20" s="27">
+        <f t="shared" si="9"/>
+        <v>4.7790399999999993</v>
+      </c>
+      <c r="AF20" s="27">
+        <f t="shared" si="9"/>
+        <v>5.0601599999999998</v>
+      </c>
+      <c r="AG20" s="27">
+        <f t="shared" si="9"/>
+        <v>5.3412799999999994</v>
+      </c>
+      <c r="AH20" s="27">
+        <f t="shared" si="9"/>
+        <v>5.622399999999999</v>
+      </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M20" s="17"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8">
+    <row r="21" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M21" s="13"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="5">
         <v>10</v>
       </c>
-      <c r="P20" s="21">
-        <f t="shared" si="5"/>
+      <c r="P21" s="16">
+        <f t="shared" si="8"/>
         <v>0.80319999999999991</v>
       </c>
-      <c r="Q20" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q21" s="27">
+        <f t="shared" si="8"/>
         <v>1.2047999999999999</v>
       </c>
-      <c r="R20" s="21">
-        <f t="shared" si="5"/>
+      <c r="R21" s="27">
+        <f t="shared" si="8"/>
         <v>1.6063999999999998</v>
       </c>
-      <c r="S20" s="21">
-        <f t="shared" si="5"/>
+      <c r="S21" s="27">
+        <f t="shared" si="8"/>
         <v>2.008</v>
       </c>
-      <c r="T20" s="21">
-        <f t="shared" si="5"/>
+      <c r="T21" s="27">
+        <f t="shared" si="8"/>
         <v>2.4095999999999997</v>
       </c>
-      <c r="U20" s="21">
-        <f t="shared" si="5"/>
+      <c r="U21" s="27">
+        <f t="shared" si="8"/>
         <v>2.8111999999999999</v>
       </c>
-      <c r="V20" s="21">
-        <f t="shared" si="5"/>
+      <c r="V21" s="27">
+        <f t="shared" si="8"/>
         <v>3.2127999999999997</v>
       </c>
-      <c r="W20" s="21">
-        <f t="shared" si="5"/>
+      <c r="W21" s="27">
+        <f t="shared" si="8"/>
         <v>3.6143999999999998</v>
       </c>
-      <c r="X20" s="21">
-        <f t="shared" si="5"/>
+      <c r="X21" s="27">
+        <f t="shared" si="8"/>
         <v>4.016</v>
       </c>
+      <c r="Y21" s="27">
+        <f t="shared" si="9"/>
+        <v>4.4175999999999993</v>
+      </c>
+      <c r="Z21" s="27">
+        <f t="shared" si="9"/>
+        <v>4.8191999999999995</v>
+      </c>
+      <c r="AA21" s="27">
+        <f t="shared" si="9"/>
+        <v>5.2207999999999997</v>
+      </c>
+      <c r="AB21" s="27">
+        <f t="shared" si="9"/>
+        <v>5.6223999999999998</v>
+      </c>
+      <c r="AC21" s="27">
+        <f t="shared" si="9"/>
+        <v>6.0239999999999991</v>
+      </c>
+      <c r="AD21" s="27">
+        <f t="shared" si="9"/>
+        <v>6.4255999999999993</v>
+      </c>
+      <c r="AE21" s="27">
+        <f t="shared" si="9"/>
+        <v>6.8271999999999986</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="9"/>
+        <v>7.2287999999999997</v>
+      </c>
+      <c r="AG21" s="27">
+        <f t="shared" si="9"/>
+        <v>7.6303999999999998</v>
+      </c>
+      <c r="AH21" s="27">
+        <f t="shared" si="9"/>
+        <v>8.032</v>
+      </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M21" s="16" t="s">
+    <row r="22" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="30">
         <v>6.3849999999999998</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="3">
         <v>3</v>
       </c>
-      <c r="P21" s="21">
-        <f t="shared" ref="P21:X24" si="6">(2*P$4)*($N$21/1000)*$O21</f>
+      <c r="P22" s="16">
+        <f t="shared" ref="P22:AE25" si="10">(2*P$4)*($N$22/1000)*$O22</f>
         <v>0.3831</v>
       </c>
-      <c r="Q21" s="21">
-        <f t="shared" si="6"/>
+      <c r="Q22" s="16">
+        <f t="shared" si="10"/>
         <v>0.57464999999999999</v>
       </c>
-      <c r="R21" s="21">
-        <f t="shared" si="6"/>
+      <c r="R22" s="28">
+        <f t="shared" si="10"/>
         <v>0.76619999999999999</v>
       </c>
-      <c r="S21" s="21">
-        <f t="shared" si="6"/>
+      <c r="S22" s="27">
+        <f t="shared" si="10"/>
         <v>0.95774999999999988</v>
       </c>
-      <c r="T21" s="21">
-        <f t="shared" si="6"/>
+      <c r="T22" s="27">
+        <f t="shared" si="10"/>
         <v>1.1493</v>
       </c>
-      <c r="U21" s="21">
-        <f t="shared" si="6"/>
+      <c r="U22" s="27">
+        <f t="shared" si="10"/>
         <v>1.3408500000000001</v>
       </c>
-      <c r="V21" s="21">
-        <f t="shared" si="6"/>
+      <c r="V22" s="27">
+        <f t="shared" si="10"/>
         <v>1.5324</v>
       </c>
-      <c r="W21" s="21">
-        <f t="shared" si="6"/>
+      <c r="W22" s="27">
+        <f t="shared" si="10"/>
         <v>1.7239499999999999</v>
       </c>
-      <c r="X21" s="21">
-        <f t="shared" si="6"/>
+      <c r="X22" s="27">
+        <f t="shared" si="10"/>
         <v>1.9154999999999998</v>
       </c>
+      <c r="Y22" s="27">
+        <f t="shared" si="10"/>
+        <v>2.1070500000000001</v>
+      </c>
+      <c r="Z22" s="27">
+        <f t="shared" si="10"/>
+        <v>2.2986</v>
+      </c>
+      <c r="AA22" s="27">
+        <f t="shared" si="10"/>
+        <v>2.4901499999999999</v>
+      </c>
+      <c r="AB22" s="27">
+        <f t="shared" si="10"/>
+        <v>2.6817000000000002</v>
+      </c>
+      <c r="AC22" s="27">
+        <f t="shared" si="10"/>
+        <v>2.8732500000000001</v>
+      </c>
+      <c r="AD22" s="27">
+        <f t="shared" si="10"/>
+        <v>3.0648</v>
+      </c>
+      <c r="AE22" s="27">
+        <f t="shared" si="10"/>
+        <v>3.2563500000000003</v>
+      </c>
+      <c r="AF22" s="27">
+        <f t="shared" ref="Y22:AH25" si="11">(2*AF$4)*($N$22/1000)*$O22</f>
+        <v>3.4478999999999997</v>
+      </c>
+      <c r="AG22" s="27">
+        <f t="shared" si="11"/>
+        <v>3.6394500000000001</v>
+      </c>
+      <c r="AH22" s="27">
+        <f t="shared" si="11"/>
+        <v>3.8309999999999995</v>
+      </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M22" s="11"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="6">
+    <row r="23" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M23" s="7"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="4">
         <v>5</v>
       </c>
-      <c r="P22" s="21">
-        <f t="shared" si="6"/>
+      <c r="P23" s="16">
+        <f t="shared" si="10"/>
         <v>0.63850000000000007</v>
       </c>
-      <c r="Q22" s="21">
-        <f t="shared" si="6"/>
+      <c r="Q23" s="27">
+        <f t="shared" si="10"/>
         <v>0.95774999999999999</v>
       </c>
-      <c r="R22" s="21">
-        <f t="shared" si="6"/>
+      <c r="R23" s="27">
+        <f t="shared" si="10"/>
         <v>1.2770000000000001</v>
       </c>
-      <c r="S22" s="21">
-        <f t="shared" si="6"/>
+      <c r="S23" s="27">
+        <f t="shared" si="10"/>
         <v>1.5962499999999999</v>
       </c>
-      <c r="T22" s="21">
-        <f t="shared" si="6"/>
+      <c r="T23" s="27">
+        <f t="shared" si="10"/>
         <v>1.9155</v>
       </c>
-      <c r="U22" s="21">
-        <f t="shared" si="6"/>
+      <c r="U23" s="27">
+        <f t="shared" si="10"/>
         <v>2.23475</v>
       </c>
-      <c r="V22" s="21">
-        <f t="shared" si="6"/>
+      <c r="V23" s="27">
+        <f t="shared" si="10"/>
         <v>2.5540000000000003</v>
       </c>
-      <c r="W22" s="21">
-        <f t="shared" si="6"/>
+      <c r="W23" s="27">
+        <f t="shared" si="10"/>
         <v>2.8732500000000001</v>
       </c>
-      <c r="X22" s="21">
-        <f t="shared" si="6"/>
+      <c r="X23" s="27">
+        <f t="shared" si="10"/>
         <v>3.1924999999999999</v>
       </c>
+      <c r="Y23" s="27">
+        <f t="shared" si="11"/>
+        <v>3.5117500000000001</v>
+      </c>
+      <c r="Z23" s="27">
+        <f t="shared" si="11"/>
+        <v>3.831</v>
+      </c>
+      <c r="AA23" s="27">
+        <f t="shared" si="11"/>
+        <v>4.1502499999999998</v>
+      </c>
+      <c r="AB23" s="27">
+        <f t="shared" si="11"/>
+        <v>4.4695</v>
+      </c>
+      <c r="AC23" s="27">
+        <f t="shared" si="11"/>
+        <v>4.7887500000000003</v>
+      </c>
+      <c r="AD23" s="27">
+        <f t="shared" si="11"/>
+        <v>5.1080000000000005</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" si="11"/>
+        <v>5.4272499999999999</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" si="11"/>
+        <v>5.7465000000000002</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" si="11"/>
+        <v>6.0657499999999995</v>
+      </c>
+      <c r="AH23" s="27">
+        <f t="shared" si="11"/>
+        <v>6.3849999999999998</v>
+      </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="6">
+    <row r="24" spans="13:34" x14ac:dyDescent="0.25">
+      <c r="M24" s="7"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="4">
         <v>7</v>
       </c>
-      <c r="P23" s="21">
-        <f t="shared" si="6"/>
+      <c r="P24" s="27">
+        <f t="shared" si="10"/>
         <v>0.89390000000000003</v>
       </c>
-      <c r="Q23" s="21">
-        <f t="shared" si="6"/>
+      <c r="Q24" s="27">
+        <f t="shared" si="10"/>
         <v>1.3408500000000001</v>
       </c>
-      <c r="R23" s="21">
-        <f t="shared" si="6"/>
+      <c r="R24" s="27">
+        <f t="shared" si="10"/>
         <v>1.7878000000000001</v>
       </c>
-      <c r="S23" s="21">
-        <f t="shared" si="6"/>
+      <c r="S24" s="27">
+        <f t="shared" si="10"/>
         <v>2.23475</v>
       </c>
-      <c r="T23" s="21">
-        <f t="shared" si="6"/>
+      <c r="T24" s="27">
+        <f t="shared" si="10"/>
         <v>2.6817000000000002</v>
       </c>
-      <c r="U23" s="21">
-        <f t="shared" si="6"/>
+      <c r="U24" s="27">
+        <f t="shared" si="10"/>
         <v>3.1286499999999999</v>
       </c>
-      <c r="V23" s="21">
-        <f t="shared" si="6"/>
+      <c r="V24" s="27">
+        <f t="shared" si="10"/>
         <v>3.5756000000000001</v>
       </c>
-      <c r="W23" s="21">
-        <f t="shared" si="6"/>
+      <c r="W24" s="27">
+        <f t="shared" si="10"/>
         <v>4.0225499999999998</v>
       </c>
-      <c r="X23" s="21">
-        <f t="shared" si="6"/>
+      <c r="X24" s="27">
+        <f t="shared" si="10"/>
         <v>4.4695</v>
       </c>
+      <c r="Y24" s="27">
+        <f t="shared" si="11"/>
+        <v>4.9164500000000002</v>
+      </c>
+      <c r="Z24" s="27">
+        <f t="shared" si="11"/>
+        <v>5.3634000000000004</v>
+      </c>
+      <c r="AA24" s="27">
+        <f t="shared" si="11"/>
+        <v>5.8103499999999997</v>
+      </c>
+      <c r="AB24" s="27">
+        <f t="shared" si="11"/>
+        <v>6.2572999999999999</v>
+      </c>
+      <c r="AC24" s="27">
+        <f t="shared" si="11"/>
+        <v>6.70425</v>
+      </c>
+      <c r="AD24" s="27">
+        <f t="shared" si="11"/>
+        <v>7.1512000000000002</v>
+      </c>
+      <c r="AE24" s="27">
+        <f t="shared" si="11"/>
+        <v>7.5981500000000004</v>
+      </c>
+      <c r="AF24" s="27">
+        <f t="shared" si="11"/>
+        <v>8.0450999999999997</v>
+      </c>
+      <c r="AG24" s="27">
+        <f t="shared" si="11"/>
+        <v>8.492049999999999</v>
+      </c>
+      <c r="AH24" s="27">
+        <f t="shared" si="11"/>
+        <v>8.9390000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="13:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="18"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20">
+    <row r="25" spans="13:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="14"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="15">
         <v>10</v>
       </c>
-      <c r="P24" s="21">
-        <f t="shared" si="6"/>
+      <c r="P25" s="27">
+        <f t="shared" si="10"/>
         <v>1.2770000000000001</v>
       </c>
-      <c r="Q24" s="21">
-        <f t="shared" si="6"/>
+      <c r="Q25" s="27">
+        <f t="shared" si="10"/>
         <v>1.9155</v>
       </c>
-      <c r="R24" s="21">
-        <f t="shared" si="6"/>
+      <c r="R25" s="27">
+        <f t="shared" si="10"/>
         <v>2.5540000000000003</v>
       </c>
-      <c r="S24" s="21">
-        <f t="shared" si="6"/>
+      <c r="S25" s="27">
+        <f t="shared" si="10"/>
         <v>3.1924999999999999</v>
       </c>
-      <c r="T24" s="21">
-        <f t="shared" si="6"/>
+      <c r="T25" s="27">
+        <f t="shared" si="10"/>
         <v>3.831</v>
       </c>
-      <c r="U24" s="21">
-        <f t="shared" si="6"/>
+      <c r="U25" s="27">
+        <f t="shared" si="10"/>
         <v>4.4695</v>
       </c>
-      <c r="V24" s="21">
-        <f t="shared" si="6"/>
+      <c r="V25" s="27">
+        <f t="shared" si="10"/>
         <v>5.1080000000000005</v>
       </c>
-      <c r="W24" s="21">
-        <f t="shared" si="6"/>
+      <c r="W25" s="27">
+        <f t="shared" si="10"/>
         <v>5.7465000000000002</v>
       </c>
-      <c r="X24" s="21">
-        <f t="shared" si="6"/>
+      <c r="X25" s="27">
+        <f t="shared" si="10"/>
         <v>6.3849999999999998</v>
+      </c>
+      <c r="Y25" s="27">
+        <f t="shared" si="11"/>
+        <v>7.0235000000000003</v>
+      </c>
+      <c r="Z25" s="27">
+        <f t="shared" si="11"/>
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="AA25" s="27">
+        <f t="shared" si="11"/>
+        <v>8.3004999999999995</v>
+      </c>
+      <c r="AB25" s="27">
+        <f t="shared" si="11"/>
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="AC25" s="27">
+        <f t="shared" si="11"/>
+        <v>9.5775000000000006</v>
+      </c>
+      <c r="AD25" s="27">
+        <f t="shared" si="11"/>
+        <v>10.216000000000001</v>
+      </c>
+      <c r="AE25" s="27">
+        <f t="shared" si="11"/>
+        <v>10.8545</v>
+      </c>
+      <c r="AF25" s="27">
+        <f t="shared" si="11"/>
+        <v>11.493</v>
+      </c>
+      <c r="AG25" s="27">
+        <f t="shared" si="11"/>
+        <v>12.131499999999999</v>
+      </c>
+      <c r="AH25" s="27">
+        <f t="shared" si="11"/>
+        <v>12.77</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +8074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
